--- a/data/trans_camb/Q45B_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/Q45B_R-Habitat-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,77</t>
+          <t>0,0; 4,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 6,6</t>
+          <t>0,79; 6,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 3,87</t>
+          <t>-5,1; 4,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 4,07</t>
+          <t>-4,45; 3,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 2,7</t>
+          <t>-2,05; 2,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 3,78</t>
+          <t>-1,74; 3,62</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 329,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-82,43; 505,17</t>
+          <t>-83,49; 322,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-79,25; 369,26</t>
+          <t>-75,62; 366,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-60,11; 479,52</t>
+          <t>-69,35; 444,65</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 2,18</t>
+          <t>-0,16; 2,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 2,03</t>
+          <t>-0,21; 2,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 0,86</t>
+          <t>-3,83; 0,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 0,43</t>
+          <t>-4,15; 0,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,03</t>
+          <t>-1,53; 1,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 0,95</t>
+          <t>-1,85; 0,85</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-62,11; —</t>
+          <t>-68,52; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-79,5; —</t>
+          <t>-69,61; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-63,8; 22,99</t>
+          <t>-60,05; 27,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-62,54; 13,24</t>
+          <t>-65,1; 12,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,16; 54,22</t>
+          <t>-43,75; 52,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-50,41; 51,22</t>
+          <t>-52,41; 42,63</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 1,06</t>
+          <t>-1,33; 1,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,09; -0,06</t>
+          <t>-2,06; -0,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 1,22</t>
+          <t>-3,72; 1,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,31; -3,05</t>
+          <t>-7,18; -3,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 0,52</t>
+          <t>-1,98; 1,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,2; -1,74</t>
+          <t>-4,29; -1,77</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-58,2; 103,42</t>
+          <t>-59,11; 92,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-85,12; 8,13</t>
+          <t>-87,01; 1,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-37,66; 16,14</t>
+          <t>-37,0; 16,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-71,69; -39,11</t>
+          <t>-70,72; -40,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-36,63; 11,94</t>
+          <t>-34,11; 23,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,18; -40,06</t>
+          <t>-70,53; -40,7</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 3,51</t>
+          <t>-0,28; 3,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,71; -0,19</t>
+          <t>-2,78; -0,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 4,02</t>
+          <t>-1,3; 3,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,11; -0,74</t>
+          <t>-4,98; -0,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 3,09</t>
+          <t>-0,01; 3,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,27; -0,71</t>
+          <t>-3,29; -0,89</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,67; 303,23</t>
+          <t>-14,49; 300,97</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-93,13; -3,6</t>
+          <t>-92,29; 6,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-17,25; 88,21</t>
+          <t>-19,0; 82,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-68,61; -12,61</t>
+          <t>-69,94; -14,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 93,42</t>
+          <t>-0,72; 98,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-71,13; -20,48</t>
+          <t>-71,07; -26,27</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 1,72</t>
+          <t>-1,64; 1,83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,01; -1,23</t>
+          <t>-3,94; -1,14</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 2,33</t>
+          <t>-2,56; 2,67</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,88; -4,31</t>
+          <t>-8,75; -4,26</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,62</t>
+          <t>-1,52; 1,6</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,86; -3,03</t>
+          <t>-5,93; -3,29</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-39,52; 63,22</t>
+          <t>-38,61; 68,3</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-85,2; -41,31</t>
+          <t>-85,0; -39,01</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-24,1; 25,95</t>
+          <t>-21,83; 29,7</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-74,61; -46,59</t>
+          <t>-74,08; -45,1</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-20,08; 25,97</t>
+          <t>-19,5; 25,35</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-73,83; -48,38</t>
+          <t>-74,34; -49,72</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 1,25</t>
+          <t>-0,27; 1,26</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,67; -0,52</t>
+          <t>-1,71; -0,49</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 0,88</t>
+          <t>-1,67; 0,81</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,3; -3,3</t>
+          <t>-5,41; -3,25</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 0,77</t>
+          <t>-0,71; 0,82</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,36; -2,06</t>
+          <t>-3,35; -2,04</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 74,54</t>
+          <t>-12,46; 69,62</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-69,15; -30,29</t>
+          <t>-70,57; -27,62</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-19,29; 12,49</t>
+          <t>-19,99; 11,45</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-62,81; -45,11</t>
+          <t>-63,93; -45,53</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 16,69</t>
+          <t>-13,38; 18,3</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-62,65; -45,22</t>
+          <t>-62,32; -43,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Q45B_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/Q45B_R-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,72</t>
+          <t>0,0; 4,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 6,49</t>
+          <t>0,79; 6,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 4,07</t>
+          <t>-5,75; 3,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 3,79</t>
+          <t>-4,55; 4,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 2,54</t>
+          <t>-1,91; 3,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 3,62</t>
+          <t>-1,48; 3,83</t>
         </is>
       </c>
     </row>
@@ -725,29 +725,29 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 329,94</t>
+          <t>-100,0; 236,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-83,49; 322,18</t>
+          <t>-83,63; 319,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-75,62; 366,58</t>
+          <t>-78,77; 427,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,35; 444,65</t>
+          <t>-62,12; 443,85</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 2,27</t>
+          <t>-0,3; 2,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 2,05</t>
+          <t>-0,38; 2,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 0,82</t>
+          <t>-4,11; 0,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 0,29</t>
+          <t>-4,28; 0,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 1,08</t>
+          <t>-1,68; 1,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 0,85</t>
+          <t>-1,74; 0,92</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-68,52; —</t>
+          <t>-75,62; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-69,61; —</t>
+          <t>-71,53; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-60,05; 27,02</t>
+          <t>-63,74; 28,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-65,1; 12,36</t>
+          <t>-65,99; 9,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-43,75; 52,25</t>
+          <t>-48,09; 52,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,41; 42,63</t>
+          <t>-49,66; 50,88</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 1,04</t>
+          <t>-1,28; 1,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,06; -0,09</t>
+          <t>-2,07; -0,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 1,2</t>
+          <t>-3,75; 1,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,18; -3,08</t>
+          <t>-7,27; -2,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 1,0</t>
+          <t>-2,18; 0,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,29; -1,77</t>
+          <t>-4,16; -1,88</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-59,11; 92,87</t>
+          <t>-55,44; 94,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-87,01; 1,34</t>
+          <t>-86,29; 8,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-37,0; 16,42</t>
+          <t>-37,38; 16,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-70,72; -40,36</t>
+          <t>-71,29; -38,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,11; 23,02</t>
+          <t>-35,94; 19,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,53; -40,7</t>
+          <t>-70,26; -40,26</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 3,41</t>
+          <t>-0,26; 3,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,78; -0,14</t>
+          <t>-2,89; -0,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 3,92</t>
+          <t>-1,27; 4,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,98; -0,74</t>
+          <t>-5,06; -0,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 3,22</t>
+          <t>-0,19; 3,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,29; -0,89</t>
+          <t>-3,31; -0,69</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 300,97</t>
+          <t>-14,88; 334,82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-92,29; 6,88</t>
+          <t>-93,92; 11,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-19,0; 82,56</t>
+          <t>-17,6; 88,79</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-69,94; -14,14</t>
+          <t>-68,66; -13,89</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 98,35</t>
+          <t>-4,97; 92,44</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-71,07; -26,27</t>
+          <t>-68,97; -19,72</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 1,83</t>
+          <t>-1,63; 1,58</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,94; -1,14</t>
+          <t>-3,78; -1,14</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 2,67</t>
+          <t>-2,73; 2,52</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,75; -4,26</t>
+          <t>-8,4; -3,98</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 1,6</t>
+          <t>-1,77; 1,69</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,93; -3,29</t>
+          <t>-5,86; -3,25</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-38,61; 68,3</t>
+          <t>-37,63; 61,59</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-85,0; -39,01</t>
+          <t>-84,84; -39,51</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-21,83; 29,7</t>
+          <t>-24,16; 27,71</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-74,08; -45,1</t>
+          <t>-73,97; -45,69</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-19,5; 25,35</t>
+          <t>-22,48; 26,96</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-74,34; -49,72</t>
+          <t>-73,9; -51,7</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 1,26</t>
+          <t>-0,25; 1,25</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,71; -0,49</t>
+          <t>-1,66; -0,51</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 0,81</t>
+          <t>-1,6; 0,95</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,41; -3,25</t>
+          <t>-5,28; -3,08</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 0,82</t>
+          <t>-0,73; 0,83</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,35; -2,04</t>
+          <t>-3,34; -2,12</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 69,62</t>
+          <t>-11,5; 75,96</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-70,57; -27,62</t>
+          <t>-70,33; -28,53</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-19,99; 11,45</t>
+          <t>-18,5; 13,65</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-63,93; -45,53</t>
+          <t>-62,47; -44,12</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-13,38; 18,3</t>
+          <t>-13,81; 18,06</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-62,32; -43,77</t>
+          <t>-61,79; -45,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Q45B_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/Q45B_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,74</t>
+          <t>0,0; 4,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 6,64</t>
+          <t>0,8; 6,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 3,1</t>
+          <t>-5,28; 3,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 4,12</t>
+          <t>-4,55; 4,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 3,3</t>
+          <t>-2,19; 2,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 3,83</t>
+          <t>-1,64; 3,78</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 236,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-83,63; 319,69</t>
+          <t>-82,43; 505,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-78,77; 427,87</t>
+          <t>-79,25; 369,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-62,12; 443,85</t>
+          <t>-60,11; 479,52</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 2,21</t>
+          <t>-0,14; 2,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 2,0</t>
+          <t>-0,2; 2,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 0,92</t>
+          <t>-3,81; 0,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 0,35</t>
+          <t>-4,07; 0,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 1,05</t>
+          <t>-1,56; 1,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 0,92</t>
+          <t>-1,72; 0,95</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-75,62; —</t>
+          <t>-62,11; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-71,53; —</t>
+          <t>-79,5; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-63,74; 28,05</t>
+          <t>-63,8; 22,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-65,99; 9,9</t>
+          <t>-62,54; 13,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-48,09; 52,32</t>
+          <t>-45,16; 54,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-49,66; 50,88</t>
+          <t>-50,41; 51,22</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,01</t>
+          <t>-1,35; 1,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,07; -0,1</t>
+          <t>-2,09; -0,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 1,18</t>
+          <t>-3,66; 1,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,27; -2,91</t>
+          <t>-7,31; -3,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 0,76</t>
+          <t>-2,28; 0,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,16; -1,88</t>
+          <t>-4,2; -1,74</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-55,44; 94,42</t>
+          <t>-58,2; 103,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-86,29; 8,23</t>
+          <t>-85,12; 8,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-37,38; 16,7</t>
+          <t>-37,66; 16,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-71,29; -38,05</t>
+          <t>-71,69; -39,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,94; 19,1</t>
+          <t>-36,63; 11,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,26; -40,26</t>
+          <t>-70,18; -40,06</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 3,44</t>
+          <t>-0,15; 3,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,89; -0,17</t>
+          <t>-2,71; -0,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 4,05</t>
+          <t>-1,21; 4,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,06; -0,73</t>
+          <t>-5,11; -0,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 3,03</t>
+          <t>-0,2; 3,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,31; -0,69</t>
+          <t>-3,27; -0,71</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,88; 334,82</t>
+          <t>-14,67; 303,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-93,92; 11,34</t>
+          <t>-93,13; -3,6</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-17,6; 88,79</t>
+          <t>-17,25; 88,21</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-68,66; -13,89</t>
+          <t>-68,61; -12,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 92,44</t>
+          <t>-4,73; 93,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-68,97; -19,72</t>
+          <t>-71,13; -20,48</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 1,58</t>
+          <t>-1,72; 1,72</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,78; -1,14</t>
+          <t>-4,01; -1,23</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 2,52</t>
+          <t>-2,86; 2,33</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,4; -3,98</t>
+          <t>-8,88; -4,31</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 1,69</t>
+          <t>-1,56; 1,62</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,86; -3,25</t>
+          <t>-5,86; -3,03</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-37,63; 61,59</t>
+          <t>-39,52; 63,22</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-84,84; -39,51</t>
+          <t>-85,2; -41,31</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-24,16; 27,71</t>
+          <t>-24,1; 25,95</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-73,97; -45,69</t>
+          <t>-74,61; -46,59</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-22,48; 26,96</t>
+          <t>-20,08; 25,97</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-73,9; -51,7</t>
+          <t>-73,83; -48,38</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 1,25</t>
+          <t>-0,18; 1,25</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,66; -0,51</t>
+          <t>-1,67; -0,52</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 0,95</t>
+          <t>-1,63; 0,88</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,28; -3,08</t>
+          <t>-5,3; -3,3</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 0,83</t>
+          <t>-0,81; 0,77</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,34; -2,12</t>
+          <t>-3,36; -2,06</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-11,5; 75,96</t>
+          <t>-8,07; 74,54</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-70,33; -28,53</t>
+          <t>-69,15; -30,29</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-18,5; 13,65</t>
+          <t>-19,29; 12,49</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-62,47; -44,12</t>
+          <t>-62,81; -45,11</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-13,81; 18,06</t>
+          <t>-14,77; 16,69</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-61,79; -45,64</t>
+          <t>-62,65; -45,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Q45B_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/Q45B_R-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>-0,23</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,77</t>
+          <t>0,11; 2,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 6,6</t>
+          <t>-0,02; 2,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 3,87</t>
+          <t>-3,6; 0,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 4,07</t>
+          <t>-3,54; 0,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 2,7</t>
+          <t>-1,35; 0,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 3,78</t>
+          <t>-1,42; 0,92</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>274,88%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>281,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-26,36%</t>
+          <t>-29,04%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-15,47%</t>
+          <t>-31,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>-6,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>51,66%</t>
+          <t>-8,77%</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,42; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,36; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,21; 15,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-82,43; 505,17</t>
+          <t>-60,2; 15,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-79,25; 369,26</t>
+          <t>-42,51; 47,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-60,11; 479,52</t>
+          <t>-46,39; 44,96</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-4,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-2,97</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 2,18</t>
+          <t>-1,35; 1,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 2,03</t>
+          <t>-2,09; -0,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 0,86</t>
+          <t>-3,66; 1,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 0,43</t>
+          <t>-7,31; -3,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,03</t>
+          <t>-2,28; 0,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 0,95</t>
+          <t>-4,2; -1,74</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>213,46%</t>
+          <t>-7,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>172,69%</t>
+          <t>-59,09%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-29,49%</t>
+          <t>-14,64%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-34,37%</t>
+          <t>-57,35%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-9,09%</t>
+          <t>-13,22%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-16,99%</t>
+          <t>-57,36%</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-62,11; —</t>
+          <t>-58,2; 103,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-79,5; —</t>
+          <t>-85,12; 8,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-63,8; 22,99</t>
+          <t>-37,66; 16,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-62,54; 13,24</t>
+          <t>-71,69; -39,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,16; 54,22</t>
+          <t>-36,63; 11,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-50,41; 51,22</t>
+          <t>-70,18; -40,06</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,96</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>-2,03</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 1,06</t>
+          <t>-0,15; 3,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,09; -0,06</t>
+          <t>-2,71; -0,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 1,22</t>
+          <t>-1,21; 4,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,31; -3,05</t>
+          <t>-5,11; -0,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 0,52</t>
+          <t>-0,2; 3,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,2; -1,74</t>
+          <t>-3,27; -0,71</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-7,41%</t>
+          <t>82,17%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-59,09%</t>
+          <t>-68,47%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-14,64%</t>
+          <t>22,57%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-57,35%</t>
+          <t>-47,16%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-13,22%</t>
+          <t>37,52%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-57,36%</t>
+          <t>-51,96%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-58,2; 103,42</t>
+          <t>-14,67; 303,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-85,12; 8,13</t>
+          <t>-93,13; -3,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-37,66; 16,14</t>
+          <t>-17,25; 88,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-71,69; -39,11</t>
+          <t>-68,61; -12,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-36,63; 11,94</t>
+          <t>-4,73; 93,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,18; -40,06</t>
+          <t>-71,13; -20,48</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,77</t>
+          <t>-6,43</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>-4,54</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 3,51</t>
+          <t>-1,72; 1,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,71; -0,19</t>
+          <t>-4,01; -1,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 4,02</t>
+          <t>-2,86; 2,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,11; -0,74</t>
+          <t>-8,88; -4,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 3,09</t>
+          <t>-1,56; 1,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,27; -0,71</t>
+          <t>-5,86; -3,03</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>82,17%</t>
+          <t>-2,53%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-68,47%</t>
+          <t>-68,69%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>-0,05%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-47,16%</t>
+          <t>-62,42%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>37,52%</t>
+          <t>-0,48%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-51,96%</t>
+          <t>-63,84%</t>
         </is>
       </c>
     </row>
@@ -1183,39 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,67; 303,23</t>
+          <t>-39,52; 63,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-93,13; -3,6</t>
+          <t>-85,2; -41,31</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-17,25; 88,21</t>
+          <t>-24,1; 25,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-68,61; -12,61</t>
+          <t>-74,61; -46,59</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 93,42</t>
+          <t>-20,08; 25,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-71,13; -20,48</t>
+          <t>-73,83; -48,38</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-6,43</t>
+          <t>-4,28</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-4,54</t>
+          <t>-2,69</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 1,72</t>
+          <t>-0,18; 1,25</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,01; -1,23</t>
+          <t>-1,67; -0,52</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 2,33</t>
+          <t>-1,63; 0,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,88; -4,31</t>
+          <t>-5,3; -3,3</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,62</t>
+          <t>-0,81; 0,77</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,86; -3,03</t>
+          <t>-3,36; -2,06</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-2,53%</t>
+          <t>24,63%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-68,69%</t>
+          <t>-52,93%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-0,05%</t>
+          <t>-4,97%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-62,42%</t>
+          <t>-54,77%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-0,48%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-63,84%</t>
+          <t>-54,23%</t>
         </is>
       </c>
     </row>
@@ -1339,200 +1339,44 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-39,52; 63,22</t>
+          <t>-8,07; 74,54</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-85,2; -41,31</t>
+          <t>-69,15; -30,29</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-24,1; 25,95</t>
+          <t>-19,29; 12,49</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-74,61; -46,59</t>
+          <t>-62,81; -45,11</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-20,08; 25,97</t>
+          <t>-14,77; 16,69</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-73,83; -48,38</t>
+          <t>-62,65; -45,22</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,49</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-1,06</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,39</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-4,28</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-2,69</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,18; 1,25</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-1,67; -0,52</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-1,63; 0,88</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-5,3; -3,3</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-0,81; 0,77</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-3,36; -2,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>24,63%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-52,93%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-4,97%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-54,77%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>1,1%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-54,23%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-8,07; 74,54</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-69,15; -30,29</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-19,29; 12,49</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-62,81; -45,11</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-14,77; 16,69</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-62,65; -45,22</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/Q45B_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/Q45B_R-Habitat-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,11; 2,22</t>
+          <t>0,05; 2,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 2,2</t>
+          <t>0,12; 2,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 0,52</t>
+          <t>-3,72; 0,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 0,59</t>
+          <t>-3,67; 0,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 0,98</t>
+          <t>-1,37; 0,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,92</t>
+          <t>-1,54; 0,81</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-52,42; —</t>
+          <t>-36,88; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-43,36; —</t>
+          <t>-41,1; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-58,21; 15,09</t>
+          <t>-61,67; 20,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-60,2; 15,33</t>
+          <t>-60,22; 16,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-42,51; 47,52</t>
+          <t>-45,13; 44,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-46,39; 44,96</t>
+          <t>-47,24; 39,75</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 1,06</t>
+          <t>-1,29; 1,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,09; -0,06</t>
+          <t>-2,01; 0,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 1,22</t>
+          <t>-3,87; 0,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,31; -3,05</t>
+          <t>-7,1; -2,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 0,52</t>
+          <t>-2,0; 0,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,2; -1,74</t>
+          <t>-4,13; -1,75</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-58,2; 103,42</t>
+          <t>-55,25; 96,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-85,12; 8,13</t>
+          <t>-86,03; 11,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-37,66; 16,14</t>
+          <t>-39,12; 13,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-71,69; -39,11</t>
+          <t>-71,26; -39,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-36,63; 11,94</t>
+          <t>-34,58; 15,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-70,18; -40,06</t>
+          <t>-69,46; -38,41</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 3,51</t>
+          <t>-0,33; 3,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,71; -0,19</t>
+          <t>-2,74; -0,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 4,02</t>
+          <t>-1,39; 3,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,11; -0,74</t>
+          <t>-5,1; -0,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 3,09</t>
+          <t>-0,33; 3,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,27; -0,71</t>
+          <t>-3,26; -0,84</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,67; 303,23</t>
+          <t>-19,54; 319,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-93,13; -3,6</t>
+          <t>-93,13; 17,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,25; 88,21</t>
+          <t>-20,16; 77,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-68,61; -12,61</t>
+          <t>-67,87; -10,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 93,42</t>
+          <t>-7,32; 91,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-71,13; -20,48</t>
+          <t>-69,58; -26,63</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 1,72</t>
+          <t>-1,67; 1,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,01; -1,23</t>
+          <t>-3,83; -1,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 2,33</t>
+          <t>-2,61; 2,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,88; -4,31</t>
+          <t>-8,66; -4,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,62</t>
+          <t>-1,65; 1,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,86; -3,03</t>
+          <t>-5,95; -3,26</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-39,52; 63,22</t>
+          <t>-39,36; 62,79</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-85,2; -41,31</t>
+          <t>-84,9; -36,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-24,1; 25,95</t>
+          <t>-22,54; 27,27</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-74,61; -46,59</t>
+          <t>-74,06; -45,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-20,08; 25,97</t>
+          <t>-20,43; 24,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-73,83; -48,38</t>
+          <t>-74,03; -50,77</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 1,25</t>
+          <t>-0,24; 1,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,67; -0,52</t>
+          <t>-1,73; -0,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 0,88</t>
+          <t>-1,87; 0,89</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,3; -3,3</t>
+          <t>-5,34; -3,15</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 0,77</t>
+          <t>-0,68; 0,85</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,36; -2,06</t>
+          <t>-3,26; -1,96</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 74,54</t>
+          <t>-11,05; 70,85</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-69,15; -30,29</t>
+          <t>-69,95; -27,59</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-19,29; 12,49</t>
+          <t>-21,45; 12,06</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-62,81; -45,11</t>
+          <t>-63,85; -44,43</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 16,69</t>
+          <t>-12,77; 18,75</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-62,65; -45,22</t>
+          <t>-61,9; -44,32</t>
         </is>
       </c>
     </row>
